--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/03_Inst_Analysis_Unit_SIT.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/07_LIB_EWS_IT/libFormula SIT/03_Inst_Analysis_Unit_SIT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\07_LIB_EWS_IT\libFormula SIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\07_LIB_EWS_IT\libFormula SIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="206">
   <si>
     <t>Analysis_Unit</t>
   </si>
@@ -630,16 +630,56 @@
   </si>
   <si>
     <t>Rating_stress</t>
+  </si>
+  <si>
+    <t>ISDA_CREDIT_EVENT_DECLARED_CDS</t>
+  </si>
+  <si>
+    <t>CDS_SPREAD_5Y</t>
+  </si>
+  <si>
+    <t>JD_PASTDUE_PUBCRED_EMPL</t>
+  </si>
+  <si>
+    <t>JD_COLLATER_VAL_DECR</t>
+  </si>
+  <si>
+    <t>JD_DELTA_CASHFLOW</t>
+  </si>
+  <si>
+    <t>COVENANT_BREACH</t>
+  </si>
+  <si>
+    <t>JD_BOND_TRADE_SUSP</t>
+  </si>
+  <si>
+    <t>JD_ACC_RISTRUT_2</t>
+  </si>
+  <si>
+    <t>JD_CONCOR_RICH_2</t>
+  </si>
+  <si>
+    <t>JD_INCROCIO_ASSEGNI</t>
+  </si>
+  <si>
+    <t>JD_REATI_GRAVI_FAM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -773,26 +813,27 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,23 +1168,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1179,23 +1203,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1450,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,680 +1964,680 @@
       <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>89</v>
+      <c r="B30" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="E30" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>87</v>
+      <c r="F30" s="15" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>90</v>
+      <c r="B31" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>88</v>
+      <c r="F31" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>91</v>
+      <c r="B32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>197</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>91</v>
+      <c r="F32" s="15" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>92</v>
+      <c r="B33" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="E33" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>92</v>
+      <c r="F33" s="15" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>93</v>
+      <c r="B34" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="E34" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>93</v>
+      <c r="F34" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>94</v>
+      <c r="B35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>94</v>
+      <c r="F35" s="15" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>95</v>
+      <c r="B36" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>201</v>
       </c>
       <c r="E36" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>95</v>
+      <c r="F36" s="15" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>96</v>
+      <c r="B37" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>202</v>
       </c>
       <c r="E37" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>96</v>
+      <c r="F37" s="15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s">
-        <v>97</v>
+      <c r="B38" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>203</v>
       </c>
       <c r="E38" t="s">
         <v>38</v>
       </c>
-      <c r="F38" t="s">
-        <v>97</v>
+      <c r="F38" s="15" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>98</v>
+      <c r="B39" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="E39" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>98</v>
+      <c r="F39" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>99</v>
+      <c r="B40" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>99</v>
+      <c r="F40" s="15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>100</v>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>100</v>
+      <c r="F41" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>101</v>
+      <c r="B42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="E42" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>101</v>
+      <c r="F42" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>102</v>
+      <c r="B43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="E43" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>102</v>
+      <c r="F43" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>103</v>
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="E44" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>103</v>
+      <c r="F44" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>104</v>
+      <c r="B45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="E45" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>104</v>
+      <c r="F45" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>105</v>
+      <c r="B46" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>105</v>
+      <c r="F46" s="7" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>112</v>
+      <c r="B47" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="E47" t="s">
         <v>38</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>112</v>
+      <c r="F47" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>113</v>
+      <c r="B48" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>113</v>
+      <c r="F48" s="7" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>114</v>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
       </c>
       <c r="E49" t="s">
         <v>38</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>114</v>
+      <c r="F49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>115</v>
+      <c r="B50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>115</v>
+      <c r="F50" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>185</v>
+      <c r="B51" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E51" t="s">
         <v>38</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>185</v>
+      <c r="F51" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>116</v>
+      <c r="B52" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="E52" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>116</v>
+      <c r="F52" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>117</v>
+      <c r="B53" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E53" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="12" t="s">
-        <v>117</v>
+      <c r="F53" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>149</v>
+      <c r="B54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="13" t="s">
-        <v>149</v>
+      <c r="F54" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>150</v>
+      <c r="B55" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E55" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>150</v>
+      <c r="F55" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>151</v>
+      <c r="B56" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="E56" t="s">
         <v>38</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>151</v>
+      <c r="F56" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>152</v>
+      <c r="B57" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="E57" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>152</v>
+      <c r="F57" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>153</v>
+      <c r="B58" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="14" t="s">
-        <v>153</v>
+      <c r="F58" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
-      <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" t="s">
-        <v>154</v>
+      <c r="B59" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="E59" t="s">
         <v>38</v>
       </c>
-      <c r="F59" t="s">
-        <v>154</v>
+      <c r="F59" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
-      <c r="B60" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" t="s">
-        <v>155</v>
+      <c r="B60" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
-        <v>155</v>
+      <c r="F60" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="B61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" t="s">
-        <v>156</v>
+      <c r="B61" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>38</v>
       </c>
-      <c r="F61" t="s">
-        <v>156</v>
+      <c r="F61" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
-      <c r="B62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>157</v>
+      <c r="B62" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="E62" t="s">
         <v>38</v>
       </c>
-      <c r="F62" t="s">
-        <v>157</v>
+      <c r="F62" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
-      <c r="B63" t="s">
-        <v>186</v>
-      </c>
-      <c r="C63" t="s">
-        <v>186</v>
+      <c r="B63" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="E63" t="s">
         <v>38</v>
       </c>
-      <c r="F63" t="s">
-        <v>186</v>
+      <c r="F63" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
-      <c r="B64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
+      <c r="B64" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="E64" t="s">
         <v>38</v>
       </c>
-      <c r="F64" t="s">
-        <v>106</v>
+      <c r="F64" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
-      <c r="B65" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
+      <c r="B65" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="E65" t="s">
         <v>38</v>
       </c>
-      <c r="F65" t="s">
-        <v>107</v>
+      <c r="F65" s="13" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
-      <c r="B66" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" t="s">
-        <v>108</v>
+      <c r="B66" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="E66" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
-        <v>108</v>
+      <c r="F66" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
-      <c r="B67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" t="s">
-        <v>109</v>
+      <c r="B67" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="E67" t="s">
         <v>38</v>
       </c>
-      <c r="F67" t="s">
-        <v>109</v>
+      <c r="F67" s="13" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
-      <c r="B68" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" t="s">
-        <v>110</v>
+      <c r="B68" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>152</v>
       </c>
       <c r="E68" t="s">
         <v>38</v>
       </c>
-      <c r="F68" t="s">
-        <v>110</v>
+      <c r="F68" s="14" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
-      <c r="B69" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" t="s">
-        <v>111</v>
+      <c r="B69" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="E69" t="s">
         <v>38</v>
       </c>
-      <c r="F69" t="s">
-        <v>111</v>
+      <c r="F69" s="14" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2638,16 +2645,16 @@
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,16 +2662,16 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
         <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,16 +2679,16 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="E72" t="s">
         <v>38</v>
       </c>
       <c r="F72" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,16 +2696,16 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E73" t="s">
         <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,16 +2713,16 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2723,16 +2730,16 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
         <v>38</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,16 +2747,16 @@
         <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
         <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2757,16 +2764,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2774,16 +2781,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2791,16 +2798,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C79" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2808,16 +2815,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C80" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E80" t="s">
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,16 +2832,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C81" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E81" t="s">
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2842,16 +2849,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,16 +2866,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2876,16 +2883,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C84" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
         <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2893,16 +2900,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E85" t="s">
         <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,16 +2917,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2927,16 +2934,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C87" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,16 +2951,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C88" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E88" t="s">
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,16 +2968,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
         <v>38</v>
       </c>
       <c r="F89" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2978,16 +2985,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,16 +3002,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
         <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3012,16 +3019,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E92" t="s">
         <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3029,16 +3036,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C93" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E93" t="s">
         <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,16 +3053,16 @@
         <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
       <c r="F94" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,16 +3070,16 @@
         <v>20</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C95" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="E95" t="s">
         <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3080,16 +3087,16 @@
         <v>20</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
         <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,16 +3104,16 @@
         <v>20</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C97" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E97" t="s">
         <v>38</v>
       </c>
       <c r="F97" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,16 +3121,16 @@
         <v>20</v>
       </c>
       <c r="B98" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3131,16 +3138,16 @@
         <v>20</v>
       </c>
       <c r="B99" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E99" t="s">
         <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,16 +3155,16 @@
         <v>20</v>
       </c>
       <c r="B100" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
         <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3165,16 +3172,16 @@
         <v>20</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,16 +3189,16 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C102" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
       <c r="F102" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3199,16 +3206,16 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3216,16 +3223,16 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C104" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="E104" t="s">
         <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,16 +3240,16 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
       </c>
       <c r="F105" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3250,16 +3257,16 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3267,16 +3274,16 @@
         <v>20</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C107" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
       </c>
       <c r="F107" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3284,16 +3291,16 @@
         <v>20</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E108" t="s">
         <v>38</v>
       </c>
       <c r="F108" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3301,16 +3308,16 @@
         <v>20</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3318,16 +3325,16 @@
         <v>20</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C110" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,16 +3342,16 @@
         <v>20</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,16 +3359,16 @@
         <v>20</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E112" t="s">
         <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3369,16 +3376,16 @@
         <v>20</v>
       </c>
       <c r="B113" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3386,16 +3393,16 @@
         <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
       <c r="F114" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3403,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E115" t="s">
         <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,16 +3427,16 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E116" t="s">
         <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3437,16 +3444,16 @@
         <v>20</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E117" t="s">
         <v>38</v>
       </c>
       <c r="F117" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3454,16 +3461,16 @@
         <v>20</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
       </c>
       <c r="F118" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,16 +3478,16 @@
         <v>20</v>
       </c>
       <c r="B119" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="E119" t="s">
         <v>38</v>
       </c>
       <c r="F119" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3488,16 +3495,16 @@
         <v>20</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E120" t="s">
         <v>38</v>
       </c>
       <c r="F120" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,16 +3512,16 @@
         <v>20</v>
       </c>
       <c r="B121" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E121" t="s">
         <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3522,16 +3529,16 @@
         <v>20</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,16 +3546,16 @@
         <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C123" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E123" t="s">
         <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,16 +3563,16 @@
         <v>20</v>
       </c>
       <c r="B124" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E124" t="s">
         <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3573,16 +3580,16 @@
         <v>20</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E125" t="s">
         <v>38</v>
       </c>
       <c r="F125" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3590,16 +3597,16 @@
         <v>20</v>
       </c>
       <c r="B126" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C126" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3607,16 +3614,16 @@
         <v>20</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C127" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E127" t="s">
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,16 +3631,16 @@
         <v>20</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C128" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="E128" t="s">
         <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3641,16 +3648,16 @@
         <v>20</v>
       </c>
       <c r="B129" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E129" t="s">
         <v>38</v>
       </c>
       <c r="F129" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,16 +3665,16 @@
         <v>20</v>
       </c>
       <c r="B130" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="C130" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,16 +3682,16 @@
         <v>20</v>
       </c>
       <c r="B131" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="E131" t="s">
         <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3692,16 +3699,16 @@
         <v>20</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E132" t="s">
         <v>38</v>
       </c>
       <c r="F132" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3709,16 +3716,16 @@
         <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C133" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E133" t="s">
         <v>38</v>
       </c>
       <c r="F133" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3726,16 +3733,16 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C134" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3743,15 +3750,202 @@
         <v>20</v>
       </c>
       <c r="B135" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" t="s">
+        <v>180</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" t="s">
+        <v>181</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>182</v>
+      </c>
+      <c r="C138" t="s">
+        <v>182</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>187</v>
+      </c>
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>188</v>
+      </c>
+      <c r="C140" t="s">
+        <v>188</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>189</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>190</v>
+      </c>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+      <c r="E142" t="s">
+        <v>38</v>
+      </c>
+      <c r="F142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>191</v>
+      </c>
+      <c r="C143" t="s">
+        <v>191</v>
+      </c>
+      <c r="E143" t="s">
+        <v>38</v>
+      </c>
+      <c r="F143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>193</v>
+      </c>
+      <c r="C145" t="s">
+        <v>193</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
         <v>194</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C146" t="s">
         <v>194</v>
       </c>
-      <c r="E135" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" t="s">
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
         <v>194</v>
       </c>
     </row>
